--- a/analysis files/thesis_analysis_18.06.22.xlsx
+++ b/analysis files/thesis_analysis_18.06.22.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\work\pypsa_thesis\analysis files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD620A-22B3-4D50-BE05-660FB0E91BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9109027-F07D-407D-AC76-E7DA75B30308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A6598F45-066A-4320-BC66-78BBF5185F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A6598F45-066A-4320-BC66-78BBF5185F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 1" sheetId="1" r:id="rId1"/>
     <sheet name="Case 2" sheetId="2" r:id="rId2"/>
     <sheet name="Case 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Case_comparison" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="185">
   <si>
     <t>case</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>remarks</t>
-  </si>
-  <si>
-    <t>loads_t.p_set</t>
   </si>
   <si>
     <t>generators_t.p_max_pu</t>
@@ -1065,6 +1063,131 @@
   <si>
     <t>AC = random
 H2 = Fraunhofer data</t>
+  </si>
+  <si>
+    <t>case 1</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>case 3</t>
+  </si>
+  <si>
+    <t>gen &amp; stor_unit p_nom_ext</t>
+  </si>
+  <si>
+    <t>1000*random values</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>loads_t.p_set [MW]</t>
+  </si>
+  <si>
+    <t>AC loads p_set [MW]</t>
+  </si>
+  <si>
+    <t>H2 loads/demand [MW]</t>
+  </si>
+  <si>
+    <t>range between 0-1000 MW daily, based on pypsa-eur 24H scenario, however this range values is for DE, might be too large only for BW</t>
+  </si>
+  <si>
+    <t>gen p_nom_opt [MW]</t>
+  </si>
+  <si>
+    <t>1) scenario: TN-H2-G
+2) H2 demand increases from 2030 -&gt; 2050</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) solar gen only
+2) p_nom_opt increases as H2 demand increases
+3) small diff between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case 2 VS case 3
+4) larger diff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case 1 VS case 2/case 3</t>
+    </r>
+  </si>
+  <si>
+    <t>sum electrolysis p_nom_opt [MW]</t>
+  </si>
+  <si>
+    <t>KA west</t>
+  </si>
+  <si>
+    <t>sum H2 store e_nom_opt [MWh]</t>
+  </si>
+  <si>
+    <t>highest electrolysis p_nom_opt [MW]</t>
+  </si>
+  <si>
+    <t>highest H2 store e_nom_opt [MWh]</t>
+  </si>
+  <si>
+    <t>highest electrolysis p_nom_opt location</t>
+  </si>
+  <si>
+    <t>highest H2 store e_nom_opt location</t>
+  </si>
+  <si>
+    <t>highest H2 load/demand [MW]</t>
+  </si>
+  <si>
+    <t>highest H2 load/demand location</t>
+  </si>
+  <si>
+    <t>Karlsruhe West</t>
+  </si>
+  <si>
+    <t>Weier</t>
+  </si>
+  <si>
+    <t>Rheinau</t>
+  </si>
+  <si>
+    <t>Eichtetten</t>
+  </si>
+  <si>
+    <t>Winnenden</t>
+  </si>
+  <si>
+    <t>1) electrolysis p_nom_opt for all cases increases as H2 demand increases
+2) H2 store e_nom_opt for all cases increases as H2 demand increases
+3) small diff between case 2 VS case 3
+4) larger diff between case 1 VS case 2/case 3</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,8 +1250,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1188,12 +1314,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1311,6 +1474,54 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1630,10 +1841,10 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1873,7 @@
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -1671,7 +1882,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="6"/>
       <c r="I1" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" s="35"/>
       <c r="K1" s="36"/>
@@ -1690,58 +1901,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="S2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>2</v>
@@ -1755,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="b">
         <v>1</v>
@@ -1770,31 +1981,31 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="14">
         <v>0</v>
@@ -1806,7 +2017,7 @@
         <v>2136492.2400000002</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U3" s="4"/>
     </row>
@@ -1818,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="b">
         <v>1</v>
@@ -1833,31 +2044,31 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="12">
         <v>28.3</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="14">
         <v>0</v>
@@ -1869,7 +2080,7 @@
         <v>19242159.390000001</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" s="4"/>
     </row>
@@ -1881,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="b">
         <v>1</v>
@@ -1896,31 +2107,31 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" s="12">
         <v>78.59</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="14">
         <v>0</v>
@@ -1932,7 +2143,7 @@
         <v>55799076.689999998</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U5" s="4"/>
     </row>
@@ -1941,10 +2152,10 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8" t="b">
         <v>1</v>
@@ -1959,31 +2170,31 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="14">
         <v>0</v>
@@ -1995,7 +2206,7 @@
         <v>2136492.2400000002</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U6" s="4"/>
     </row>
@@ -2004,10 +2215,10 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="b">
         <v>1</v>
@@ -2022,31 +2233,31 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="12">
         <v>28.3</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="Q7" s="14">
         <v>0</v>
@@ -2058,7 +2269,7 @@
         <v>19242159.390000001</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U7" s="4"/>
     </row>
@@ -2067,10 +2278,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>1</v>
@@ -2085,31 +2296,31 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="12">
         <v>78.59</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="Q8" s="14">
         <v>0</v>
@@ -2121,7 +2332,7 @@
         <v>55799076.689999998</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" s="4"/>
     </row>
@@ -2133,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>1</v>
@@ -2148,31 +2359,31 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="Q9" s="14">
         <v>0</v>
@@ -2184,7 +2395,7 @@
         <v>5469.52</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U9" s="4"/>
     </row>
@@ -2196,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="b">
         <v>1</v>
@@ -2211,31 +2422,31 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" s="12">
         <v>7.53</v>
       </c>
       <c r="O10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="Q10" s="14">
         <v>0</v>
@@ -2247,7 +2458,7 @@
         <v>5123630.71</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="4"/>
     </row>
@@ -2259,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8" t="b">
         <v>1</v>
@@ -2274,31 +2485,31 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="12">
         <v>13.89</v>
       </c>
       <c r="O11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
@@ -2310,7 +2521,7 @@
         <v>9858381.9399999995</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U11" s="4"/>
     </row>
@@ -2319,10 +2530,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="b">
         <v>1</v>
@@ -2337,31 +2548,31 @@
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="14">
         <v>0</v>
@@ -2373,7 +2584,7 @@
         <v>5469.52</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U12" s="4"/>
     </row>
@@ -2382,10 +2593,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="b">
         <v>1</v>
@@ -2400,31 +2611,31 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N13" s="12">
         <v>7.53</v>
       </c>
       <c r="O13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="Q13" s="14">
         <v>0</v>
@@ -2436,7 +2647,7 @@
         <v>5123630.71</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U13" s="4"/>
     </row>
@@ -2445,10 +2656,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="b">
         <v>1</v>
@@ -2463,31 +2674,31 @@
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" s="12">
         <v>13.89</v>
       </c>
       <c r="O14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="Q14" s="14">
         <v>0</v>
@@ -2499,7 +2710,7 @@
         <v>9858381.9399999995</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U14" s="4"/>
     </row>
@@ -2526,22 +2737,22 @@
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N15" s="12">
         <v>3.2371094579999999</v>
@@ -2552,7 +2763,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U15" s="4"/>
     </row>
@@ -2579,37 +2790,37 @@
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U16" s="4"/>
     </row>
@@ -2636,37 +2847,37 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="N17" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U17" s="4"/>
     </row>
@@ -2693,25 +2904,25 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="13"/>
@@ -2719,7 +2930,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U18" s="4"/>
     </row>
@@ -2746,22 +2957,22 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19" s="12">
         <v>3.2371094579999999</v>
@@ -2772,7 +2983,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U19" s="4"/>
     </row>
@@ -2785,14 +2996,14 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2817,7 +3028,7 @@
       <pane xSplit="9" ySplit="6" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +3058,7 @@
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -2856,7 +3067,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="6"/>
       <c r="I1" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" s="35"/>
       <c r="K1" s="36"/>
@@ -2876,61 +3087,61 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>2</v>
@@ -2944,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="b">
         <v>1</v>
@@ -2959,46 +3170,46 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="Q3" s="14">
         <v>0</v>
       </c>
       <c r="R3" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="T3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="V3" s="4"/>
     </row>
@@ -3010,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="b">
         <v>1</v>
@@ -3025,46 +3236,46 @@
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="12">
         <v>28.3</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="14">
-        <v>0</v>
-      </c>
-      <c r="R4" s="32" t="s">
+      <c r="S4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="33" t="s">
-        <v>74</v>
-      </c>
       <c r="T4" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="V4" s="4"/>
     </row>
@@ -3076,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="b">
         <v>1</v>
@@ -3091,46 +3302,46 @@
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" s="12">
         <v>78.59</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="33" t="s">
-        <v>78</v>
-      </c>
       <c r="T5" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="V5" s="4"/>
     </row>
@@ -3139,10 +3350,10 @@
         <v>2.4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8" t="b">
         <v>1</v>
@@ -3157,46 +3368,46 @@
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="O6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="Q6" s="24">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="24">
-        <v>0</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="33" t="s">
+      <c r="T6" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="U6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V6" s="4"/>
     </row>
@@ -3205,10 +3416,10 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="b">
         <v>1</v>
@@ -3223,46 +3434,46 @@
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="12">
         <v>28.3</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="Q7" s="24">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S7" s="33" t="s">
+      <c r="T7" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="33" t="s">
-        <v>88</v>
-      </c>
       <c r="U7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V7" s="4"/>
     </row>
@@ -3271,10 +3482,10 @@
         <v>2.6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>1</v>
@@ -3289,46 +3500,46 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="12">
         <v>78.59</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>91</v>
-      </c>
       <c r="T8" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="V8" s="4"/>
     </row>
@@ -3355,22 +3566,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="12">
         <v>3.2371094579999999</v>
@@ -3382,7 +3593,7 @@
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V9" s="4"/>
     </row>
@@ -3409,22 +3620,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="12">
         <v>3.2371094579999999</v>
@@ -3436,7 +3647,7 @@
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V10" s="4"/>
     </row>
@@ -3449,14 +3660,14 @@
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3477,11 +3688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F27BA86-7A6C-4638-9008-97D81FD4F181}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" ySplit="7" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3514,7 +3725,7 @@
     <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -3524,7 +3735,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="6"/>
       <c r="J1" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="36"/>
@@ -3546,70 +3757,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>2</v>
@@ -3623,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="b">
         <v>1</v>
@@ -3641,52 +3852,52 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="P3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="14">
-        <v>0</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="26" t="s">
+      <c r="V3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="W3" s="25">
+        <v>0</v>
+      </c>
+      <c r="X3" s="31" t="s">
         <v>100</v>
-      </c>
-      <c r="W3" s="25">
-        <v>0</v>
-      </c>
-      <c r="X3" s="31" t="s">
-        <v>101</v>
       </c>
       <c r="Y3" s="4"/>
     </row>
@@ -3698,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="b">
         <v>1</v>
@@ -3716,64 +3927,64 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="12">
         <v>28.3</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="14">
-        <v>0</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>104</v>
-      </c>
       <c r="V4" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" s="25">
+        <v>0</v>
+      </c>
+      <c r="X4" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="W4" s="25">
-        <v>0</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="b">
         <v>1</v>
@@ -3791,64 +4002,64 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" s="12">
         <v>78.59</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="S5" s="14">
-        <v>0</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="V5" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="W5" s="25">
         <v>0</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8" t="b">
         <v>1</v>
@@ -3866,52 +4077,52 @@
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="12">
         <v>78.59</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="S6" s="14">
-        <v>0</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="U6" s="26" t="s">
+      <c r="V6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="W6" s="25">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="W6" s="25">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="Y6" s="4"/>
     </row>
@@ -3920,10 +4131,10 @@
         <v>3.4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="b">
         <v>1</v>
@@ -3941,52 +4152,52 @@
         <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="S7" s="14">
-        <v>0</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" s="26" t="s">
+      <c r="V7" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="V7" s="26" t="s">
+      <c r="W7" s="25">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="W7" s="25">
-        <v>0</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="Y7" s="4"/>
     </row>
@@ -3995,10 +4206,10 @@
         <v>3.5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>1</v>
@@ -4016,64 +4227,64 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="12">
         <v>28.3</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="S8" s="24">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="24">
-        <v>0</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" s="26" t="s">
+      <c r="V8" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="W8" s="25">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="W8" s="25">
-        <v>0</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>1</v>
@@ -4091,64 +4302,64 @@
         <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" s="12">
         <v>78.59</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="S9" s="24">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="U9" s="26" t="s">
+      <c r="V9" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="V9" s="26" t="s">
-        <v>143</v>
-      </c>
       <c r="W9" s="25">
         <v>0</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="b">
         <v>1</v>
@@ -4166,52 +4377,52 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O10" s="12">
         <v>78.59</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="S10" s="24">
-        <v>0</v>
-      </c>
-      <c r="T10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="U10" s="26" t="s">
+      <c r="V10" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="V10" s="26" t="s">
+      <c r="W10" s="25">
+        <v>0</v>
+      </c>
+      <c r="X10" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="W10" s="25">
-        <v>0</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="Y10" s="4"/>
     </row>
@@ -4241,22 +4452,22 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" s="12">
         <v>3.2371094579999999</v>
@@ -4270,7 +4481,7 @@
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
       <c r="X11" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y11" s="4"/>
     </row>
@@ -4300,22 +4511,22 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O12" s="12">
         <v>3.2371094579999999</v>
@@ -4329,7 +4540,7 @@
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
       <c r="X12" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y12" s="4"/>
     </row>
@@ -4342,14 +4553,14 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="15:16" x14ac:dyDescent="0.25">
@@ -4365,4 +4576,433 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA403096-B77B-4304-8E94-F8B516A69917}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="47">
+        <v>2030</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
+        <v>2050</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="44">
+        <v>3240000</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44">
+        <v>28300000</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44">
+        <v>78590000</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="14">
+        <v>126000</v>
+      </c>
+      <c r="C6" s="14">
+        <v>133000</v>
+      </c>
+      <c r="D6" s="14">
+        <v>131000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>259000</v>
+      </c>
+      <c r="F6" s="14">
+        <v>334000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>333000</v>
+      </c>
+      <c r="H6" s="14">
+        <v>543000</v>
+      </c>
+      <c r="I6" s="14">
+        <v>728000</v>
+      </c>
+      <c r="J6" s="14">
+        <v>717000</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="48">
+        <v>831000</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="48">
+        <v>6980000</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="48">
+        <v>20100000</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="14">
+        <v>3880</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4030</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="14">
+        <v>28400</v>
+      </c>
+      <c r="G9" s="14">
+        <v>28500</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="14">
+        <v>78200</v>
+      </c>
+      <c r="J9" s="14">
+        <v>78200</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="14">
+        <v>10930.65</v>
+      </c>
+      <c r="C10" s="14">
+        <v>16400</v>
+      </c>
+      <c r="D10" s="14">
+        <v>16600</v>
+      </c>
+      <c r="E10" s="14">
+        <v>86006.35</v>
+      </c>
+      <c r="F10" s="14">
+        <v>125000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>125000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>234353.27</v>
+      </c>
+      <c r="I10" s="14">
+        <v>327000</v>
+      </c>
+      <c r="J10" s="14">
+        <v>325000</v>
+      </c>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="14">
+        <v>5630</v>
+      </c>
+      <c r="D12" s="14">
+        <v>6710</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="14">
+        <v>12100</v>
+      </c>
+      <c r="G12" s="14">
+        <v>17500</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="14">
+        <v>24300</v>
+      </c>
+      <c r="J12" s="14">
+        <v>28000</v>
+      </c>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2136492.2400000002</v>
+      </c>
+      <c r="C13" s="14">
+        <v>56100</v>
+      </c>
+      <c r="D13" s="14">
+        <v>51100</v>
+      </c>
+      <c r="E13" s="14">
+        <v>19242159.390000001</v>
+      </c>
+      <c r="F13" s="14">
+        <v>193000</v>
+      </c>
+      <c r="G13" s="14">
+        <v>258000</v>
+      </c>
+      <c r="H13" s="14">
+        <v>55799076.689999998</v>
+      </c>
+      <c r="I13" s="14">
+        <v>527000</v>
+      </c>
+      <c r="J13" s="14">
+        <v>583000</v>
+      </c>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>